--- a/DbTool/Template/ThemeSample/darkSpace.xlsx
+++ b/DbTool/Template/ThemeSample/darkSpace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\AmandaChou\git\github\DevTool\DbTool\Template\ThemeSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB290B70-6991-4932-B06E-6332B7D333D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0387F9E-9138-4BAE-A9D5-B9E2303A542B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7440" yWindow="1296" windowWidth="15120" windowHeight="10056" xr2:uid="{93EE71A6-18E9-487D-ACF7-7CE2E333B3E7}"/>
   </bookViews>
@@ -37,15 +37,14 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
-      <t xml:space="preserve">TableList header </t>
+      <t xml:space="preserve">TableList </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
+        <sz val="11"/>
+        <color theme="8" tint="0.59999389629810485"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
         <charset val="136"/>
       </rPr>
       <t>樣式</t>
@@ -54,15 +53,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">TableList </t>
+      <t xml:space="preserve">Column </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="8" tint="0.59999389629810485"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
         <charset val="136"/>
       </rPr>
       <t>樣式</t>
@@ -71,15 +69,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Column header </t>
+      <t xml:space="preserve">TableList header </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
         <charset val="136"/>
       </rPr>
       <t>樣式</t>
@@ -88,15 +85,33 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Column </t>
+      <t xml:space="preserve">TableName </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
-        <color theme="8" tint="0.59999389629810485"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
         <charset val="136"/>
       </rPr>
       <t>樣式</t>
@@ -105,36 +120,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">TableName </t>
+      <t xml:space="preserve">Column header </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>在各</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
         <charset val="136"/>
       </rPr>
       <t>樣式</t>
@@ -146,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,55 +156,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="8" tint="0.59999389629810485"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="8" tint="0.39997558519241921"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="8" tint="0.39997558519241921"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="STHupo"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="8" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="8" tint="0.59999389629810485"/>
+      <name val="Garamond"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="8" tint="0.59999389629810485"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="8" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -269,17 +243,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -602,36 +575,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73953184-80B9-45BC-A4A3-76DD0CE18A1C}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
